--- a/UI/bin/Debug/Excel/StockInfoCheckTicket.xlsx
+++ b/UI/bin/Debug/Excel/StockInfoCheckTicket.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
-    <t>日期@var ticket=StockInfoCheckTicket;var item=StockInfoCheckTicketItem;""</t>
+    <t>日期@var ticket=StockInfoCheckTicket;var item=StockInfoCheckTicketItem;""//初始化代码</t>
   </si>
   <si>
     <t>零件号</t>
@@ -74,11 +74,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -108,6 +108,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -115,44 +122,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,10 +143,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,49 +207,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -260,187 +260,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,6 +469,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -484,44 +493,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,17 +519,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -566,6 +533,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -574,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,16 +586,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,115 +604,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1080,7 +1080,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>

--- a/UI/bin/Debug/Excel/StockInfoCheckTicket.xlsx
+++ b/UI/bin/Debug/Excel/StockInfoCheckTicket.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123\Source\Repos\wms1.19\UI\bin\Debug\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20415" windowHeight="10575"/>
+    <workbookView windowWidth="20415" windowHeight="10575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>日期@var ticket=StockInfoCheckTicket;var item=StockInfoCheckTicketItem;""//初始化代码</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+  <si>
+    <t>日期@var ticket=StockInfoCheckTicket;var item=StockInfoCheckTicketItem;""#SET TABLE COLUMNS 8//初始化代码</t>
   </si>
   <si>
     <t>零件号</t>
@@ -53,6 +48,9 @@
     <t>#REPEAT AREA 1 7 VAR i IN range(item.length)</t>
   </si>
   <si>
+    <t>@item[i].SupplyNo</t>
+  </si>
+  <si>
     <t>@item[i].ComponentName</t>
   </si>
   <si>
@@ -69,20 +67,20 @@
   </si>
   <si>
     <t>@(item[i].RealShipmentAreaAmount+item[i].RealOverflowAreaAmount-item[i].ExpectedShipmentAreaAmount-item[i].ExcpetedOverflowAreaAmount)</t>
-  </si>
-  <si>
-    <t>@item[i].SupplyNo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +107,89 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -117,21 +198,254 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -154,12 +468,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -175,20 +728,63 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -237,7 +833,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,7 +868,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -475,25 +1071,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
-    <col min="3" max="3" width="27.875" customWidth="1"/>
+    <col min="2" max="2" width="20.8761061946903" customWidth="1"/>
+    <col min="3" max="3" width="27.8761061946903" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" ht="17.6" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +1115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.25">
+    <row r="2" ht="13.85" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -533,61 +1129,67 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="14.25">
+    <row r="3" ht="13.85" spans="1:8">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/UI/bin/Debug/Excel/StockInfoCheckTicket.xlsx
+++ b/UI/bin/Debug/Excel/StockInfoCheckTicket.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123\Source\Repos\wms1.22\UI\bin\Debug\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20412" windowHeight="10572"/>
+    <workbookView windowWidth="20415" windowHeight="10575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+  <si>
+    <t>日期@var ticket=StockInfoCheckTicket;var item=StockInfoCheckTicketItem;""#SET TABLE COLUMNS 10//初始化代码</t>
+  </si>
   <si>
     <t>零件号</t>
   </si>
@@ -29,24 +27,33 @@
     <t>零件名</t>
   </si>
   <si>
-    <t>账目</t>
-  </si>
-  <si>
-    <t>货位</t>
-  </si>
-  <si>
-    <t>溢库区</t>
-  </si>
-  <si>
-    <t>实数</t>
+    <t>合格品账目</t>
+  </si>
+  <si>
+    <t>发货区账目</t>
+  </si>
+  <si>
+    <t>溢库区账目</t>
+  </si>
+  <si>
+    <t>合格品实盘数</t>
   </si>
   <si>
     <t>差异</t>
   </si>
   <si>
+    <t>收货区账目</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>@ticket.CheckDate==null?'':ticket.CheckDate.toLocaleDateString()</t>
   </si>
   <si>
+    <t>#REPEAT AREA 1 9 VAR i IN range(item.length)</t>
+  </si>
+  <si>
     <t>@item[i].SupplyNo</t>
   </si>
   <si>
@@ -59,49 +66,33 @@
     <t>@item[i].RealShipmentAreaAmount</t>
   </si>
   <si>
+    <t>@item[i].RealOverflowAreaAmount</t>
+  </si>
+  <si>
     <t>@(item[i].RealShipmentAreaAmount+item[i].RealOverflowAreaAmount)</t>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货区</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>@item[i].RealOverflowAreaAmount</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>@item[i].QualifiedQuantityVariance</t>
   </si>
   <si>
     <t>@item[i].RealReceiptAreaAmount</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>@item[i].QualifiedQuantityVariance</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>@item[i].Comment</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期@var ticket=StockInfoCheckTicket;var item=StockInfoCheckTicketItem;""#SET TABLE COLUMNS 10//初始化代码</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>#REPEAT AREA 1 9 VAR i IN range(item.length)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,40 +108,363 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -173,44 +487,329 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -259,7 +858,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,7 +893,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -497,134 +1096,146 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.8849557522124" customWidth="1"/>
+    <col min="3" max="3" width="27.8849557522124" customWidth="1"/>
+    <col min="4" max="4" width="12.2920353982301" customWidth="1"/>
+    <col min="5" max="5" width="11.4247787610619" customWidth="1"/>
+    <col min="6" max="6" width="11.4159292035398" customWidth="1"/>
+    <col min="7" max="7" width="13.8141592920354" customWidth="1"/>
+    <col min="8" max="8" width="7.90265486725664" customWidth="1"/>
+    <col min="9" max="9" width="11.6194690265487" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.399999999999999">
-      <c r="A1" t="s">
+    <row r="1" ht="17.6" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="13.85" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" ht="13.85" spans="1:10">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>13</v>
+      <c r="J3" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="G4" s="6"/>
+    <row r="4" spans="7:7">
+      <c r="G4" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>